--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail7 Features.xlsx
@@ -2155,7 +2155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,29 +2166,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2209,115 +2207,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2334,72 +2322,66 @@
         <v>5.703972163305871e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1346651500772297</v>
+        <v>3.137787014296659e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.2348337237076521</v>
+        <v>4.349718614901852e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.137787014296659e-07</v>
+        <v>0.05973877479092133</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.349718614901852e-06</v>
+        <v>0.4092770956451354</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05973877479092133</v>
+        <v>0.1709218380612497</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4092770956451354</v>
+        <v>1.740256912649366</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1709218380612497</v>
+        <v>1.62484182812547</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.678780382394518</v>
+        <v>3.523408681579081</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.62484182812547</v>
+        <v>1.178669998510521e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.523408681579081</v>
+        <v>35147960.53449747</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.178669998510521e-14</v>
+        <v>3.242745714790527e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>35147960.53449747</v>
+        <v>14.56104317004201</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.242745714790527e-06</v>
+        <v>0.0001689900963169961</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>14.56104317004201</v>
+        <v>10.94337265152532</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001689900963169961</v>
+        <v>1.288218571502821</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.94337265152532</v>
+        <v>0.02023781540395935</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.288218571502821</v>
+        <v>2.860592883708519</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02023781540395935</v>
+        <v>0.9544688430651997</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.860592883708519</v>
+        <v>1.782365543851857</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9544688430651997</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.782365543851857</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2245651544550509</v>
       </c>
     </row>
@@ -2414,72 +2396,66 @@
         <v>5.371933074895494e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3730948494192057</v>
+        <v>2.294958238992092e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.6329196207464873</v>
+        <v>4.352395091823054e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.294958238992092e-07</v>
+        <v>0.03643305836742929</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.352395091823054e-06</v>
+        <v>0.3879971392420942</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03643305836742929</v>
+        <v>0.1517168488865134</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3879971392420942</v>
+        <v>1.759315502927468</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1517168488865134</v>
+        <v>1.752777111506181</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.701775271198039</v>
+        <v>3.61429219422317</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.752777111506181</v>
+        <v>1.12013856541595e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.61429219422317</v>
+        <v>36467845.10329541</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.12013856541595e-14</v>
+        <v>3.147547081977686e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>36467845.10329541</v>
+        <v>14.89676452318334</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.147547081977686e-06</v>
+        <v>0.0001470247561475908</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>14.89676452318334</v>
+        <v>10.56531242810362</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001470247561475908</v>
+        <v>1.399878434223638</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.56531242810362</v>
+        <v>0.01641175995084661</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.399878434223638</v>
+        <v>3.080980305056738</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01641175995084661</v>
+        <v>0.9557368756061542</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.080980305056738</v>
+        <v>1.723699259674306</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9557368756061542</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.723699259674306</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2293509774259826</v>
       </c>
     </row>
@@ -2494,72 +2470,66 @@
         <v>5.295169408899682e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3635588404305036</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6023358042609668</v>
+        <v>4.353636366656699e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>0.01046956682373363</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.353636366656699e-06</v>
+        <v>0.3409406595680107</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01046956682373363</v>
+        <v>0.1162002047345543</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3409406595680107</v>
+        <v>1.757285967109713</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1162002047345543</v>
+        <v>1.632513021967239</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.699805917885603</v>
+        <v>3.746507595105197</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.632513021967239</v>
+        <v>1.04247352607671e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.746507595105197</v>
+        <v>39089991.61790142</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.04247352607671e-14</v>
+        <v>2.95168458472647e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>39089991.61790142</v>
+        <v>15.92928158205471</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.95168458472647e-06</v>
+        <v>0.0001121821565375477</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15.92928158205471</v>
+        <v>7.844561972188597</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001121821565375477</v>
+        <v>1.197572730765299</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.844561972188597</v>
+        <v>0.006903370478613247</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.197572730765299</v>
+        <v>3.168568518786413</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006903370478613247</v>
+        <v>0.956064250212995</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.168568518786413</v>
+        <v>1.7102021210585</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.956064250212995</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.7102021210585</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2461627669272511</v>
       </c>
     </row>
@@ -2574,72 +2544,66 @@
         <v>5.289127383949966e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.364173667045297</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5920324222215951</v>
+        <v>4.353622780862316e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.008663222346592607</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.353622780862316e-06</v>
+        <v>0.2995185069905646</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.008663222346592607</v>
+        <v>0.08973067386298847</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2995185069905646</v>
+        <v>1.747019157880074</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08973067386298847</v>
+        <v>1.631184044060297</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.682792813688629</v>
+        <v>4.238864284336878</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.631184044060297</v>
+        <v>7.988002186065237e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.238864284336878</v>
+        <v>52017221.8488081</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.988002186065237e-15</v>
+        <v>2.206971425586529e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>52017221.8488081</v>
+        <v>21.61386736955498</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.206971425586529e-06</v>
+        <v>0.000117378933205808</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>21.61386736955498</v>
+        <v>7.592751929733591</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000117378933205808</v>
+        <v>1.319516367464023</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.592751929733591</v>
+        <v>0.006766881632927477</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.319516367464023</v>
+        <v>3.016141728620135</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006766881632927477</v>
+        <v>0.954783641531939</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.016141728620135</v>
+        <v>1.739678454513607</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.954783641531939</v>
+        <v>34</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.739678454513607</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.249984066287701</v>
       </c>
     </row>
@@ -2654,72 +2618,66 @@
         <v>5.23634508697707e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3913089098463529</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.5035548589865617</v>
+        <v>4.352904622812025e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01715534217838212</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.352904622812025e-06</v>
+        <v>0.291451363478141</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01715534217838212</v>
+        <v>0.08523276109495725</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.291451363478141</v>
+        <v>1.749260004977073</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08523276109495725</v>
+        <v>1.772608984039084</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.688031368271373</v>
+        <v>4.620850815554357</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.772608984039084</v>
+        <v>6.721919450840584e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.620850815554357</v>
+        <v>61818718.51018045</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.721919450840584e-15</v>
+        <v>1.857568658006862e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>61818718.51018045</v>
+        <v>25.68817788433652</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.857568658006862e-06</v>
+        <v>0.0001235851358763571</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>25.68817788433652</v>
+        <v>7.709925723265423</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001235851358763571</v>
+        <v>1.442770467624359</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.709925723265423</v>
+        <v>0.007346265628334415</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.442770467624359</v>
+        <v>2.967157615155497</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007346265628334415</v>
+        <v>0.9537768635218389</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.967157615155497</v>
+        <v>1.745312879816271</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9537768635218389</v>
+        <v>34</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.745312879816271</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2502990337712926</v>
       </c>
     </row>
@@ -2734,72 +2692,66 @@
         <v>5.148724630323697e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4140922594529807</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3795453745697785</v>
+        <v>4.351957369079341e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01817414921082499</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.351957369079341e-06</v>
+        <v>0.2958142634599216</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01817414921082499</v>
+        <v>0.08783500172307</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2958142634599216</v>
+        <v>1.754209502453521</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.08783500172307</v>
+        <v>1.82786191393247</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.692098167189779</v>
+        <v>4.683765263827503</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.82786191393247</v>
+        <v>6.542548581974452e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.683765263827503</v>
+        <v>63165123.53831033</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.542548581974452e-15</v>
+        <v>1.821351794529502e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>63165123.53831033</v>
+        <v>26.10367513476516</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.821351794529502e-06</v>
+        <v>0.0001262933150234585</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>26.10367513476516</v>
+        <v>7.692494532577364</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001262933150234585</v>
+        <v>1.644521432186216</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.692494532577364</v>
+        <v>0.007473340250532363</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.644521432186216</v>
+        <v>3.06680251290247</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007473340250532363</v>
+        <v>0.9544460954458511</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.06680251290247</v>
+        <v>1.711145166526939</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9544460954458511</v>
+        <v>34</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.711145166526939</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2513112070863003</v>
       </c>
     </row>
@@ -2814,72 +2766,66 @@
         <v>5.072322905874751e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4385553297393195</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2544412038619108</v>
+        <v>4.351107929629685e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01488503644805223</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.351107929629685e-06</v>
+        <v>0.2988189698997413</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01488503644805223</v>
+        <v>0.08950875002254531</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2988189698997413</v>
+        <v>1.760774826310045</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.08950875002254531</v>
+        <v>1.864044092541458</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.696796332983782</v>
+        <v>4.646882197462569</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.864044092541458</v>
+        <v>6.646819316121426e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.646882197462569</v>
+        <v>62301930.14270055</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.646819316121426e-15</v>
+        <v>1.84922052220505e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>62301930.14270055</v>
+        <v>25.79983190023052</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.84922052220505e-06</v>
+        <v>0.000126578017152335</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>25.79983190023052</v>
+        <v>7.917548661524441</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000126578017152335</v>
+        <v>1.723021300290286</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.917548661524441</v>
+        <v>0.007934869172391652</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.723021300290286</v>
+        <v>3.099170874865371</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007934869172391652</v>
+        <v>0.955167235707275</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.099170874865371</v>
+        <v>1.742890640174491</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.955167235707275</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.742890640174491</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2584507410692256</v>
       </c>
     </row>
@@ -2894,72 +2840,66 @@
         <v>5.021358153555333e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4665974447222891</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.14778013465649</v>
+        <v>4.350441598868595e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01172998810761267</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.350441598868595e-06</v>
+        <v>0.3001628304762664</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01172998810761267</v>
+        <v>0.09023195024752821</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3001628304762664</v>
+        <v>1.761150677553293</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.09023195024752821</v>
+        <v>1.799795012273294</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.696246622264903</v>
+        <v>4.645718099608664</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.799795012273294</v>
+        <v>6.65015077849209e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.645718099608664</v>
+        <v>62534714.36842542</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.65015077849209e-15</v>
+        <v>1.842733770397649e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>62534714.36842542</v>
+        <v>26.00601646552362</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.842733770397649e-06</v>
+        <v>0.0001216575378279367</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>26.00601646552362</v>
+        <v>7.748364703697597</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001216575378279367</v>
+        <v>1.479709874467557</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.748364703697597</v>
+        <v>0.007303972526238879</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.479709874467557</v>
+        <v>3.024985189193942</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007303972526238879</v>
+        <v>0.9545816435206033</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.024985189193942</v>
+        <v>1.757357113649875</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9545816435206033</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.757357113649875</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2696610495018476</v>
       </c>
     </row>
@@ -2974,72 +2914,66 @@
         <v>4.986904124069756e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4948166929522329</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.06126321920537992</v>
+        <v>4.349898895401763e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01060040909225676</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.349898895401763e-06</v>
+        <v>0.3017576818017377</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01060040909225676</v>
+        <v>0.09116687009254633</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3017576818017377</v>
+        <v>1.754259316711261</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.09116687009254633</v>
+        <v>1.731347251350373</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.684237006007406</v>
+        <v>4.515396580764649</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.731347251350373</v>
+        <v>7.039558129108253e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.515396580764649</v>
+        <v>59574969.64518288</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.039558129108253e-15</v>
+        <v>1.928808670519519e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>59574969.64518288</v>
+        <v>24.98463785989061</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.928808670519519e-06</v>
+        <v>0.0001145436767884226</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>24.98463785989061</v>
+        <v>7.357720208516644</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001145436767884226</v>
+        <v>1.418254852347304</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.357720208516644</v>
+        <v>0.006200941832006533</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.418254852347304</v>
+        <v>3.077112091618954</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006200941832006533</v>
+        <v>0.9528594639940633</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.077112091618954</v>
+        <v>1.717668989870751</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9528594639940633</v>
+        <v>15</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.717668989870751</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2586922537491762</v>
       </c>
     </row>
@@ -3054,72 +2988,66 @@
         <v>4.959685004584033e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5283001500970516</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.01963399720592918</v>
+        <v>4.349329656807233e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.0125351599715905</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.349329656807233e-06</v>
+        <v>0.3047532097436675</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0125351599715905</v>
+        <v>0.09301949239203162</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3047532097436675</v>
+        <v>1.748618354073022</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.09301949239203162</v>
+        <v>1.72729866387855</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.681191235805628</v>
+        <v>4.431314169100162</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.72729866387855</v>
+        <v>7.309238211885623e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.431314169100162</v>
+        <v>57285794.7840865</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.309238211885623e-15</v>
+        <v>2.002992132868281e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>57285794.7840865</v>
+        <v>23.98645136504171</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.002992132868281e-06</v>
+        <v>0.000115094411386813</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>23.98645136504171</v>
+        <v>7.259784569003352</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000115094411386813</v>
+        <v>1.521849861676808</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.259784569003352</v>
+        <v>0.006065990180950671</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.521849861676808</v>
+        <v>3.128669790387059</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006065990180950671</v>
+        <v>0.9551324260256598</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.128669790387059</v>
+        <v>1.740088297130729</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9551324260256598</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.740088297130729</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2555591818646245</v>
       </c>
     </row>
@@ -3134,72 +3062,66 @@
         <v>4.946416092175777e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5691821857621198</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.07968373745340873</v>
+        <v>4.348659114870813e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01459425256625037</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.348659114870813e-06</v>
+        <v>0.3078175749802294</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01459425256625037</v>
+        <v>0.09494472353808962</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3078175749802294</v>
+        <v>1.743923742563729</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.09494472353808962</v>
+        <v>1.773546505697898</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.677539312662915</v>
+        <v>4.457647193861975</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.773546505697898</v>
+        <v>7.223136359172472e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.457647193861975</v>
+        <v>58204625.91772163</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.223136359172472e-15</v>
+        <v>1.96962874478347e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>58204625.91772163</v>
+        <v>24.47038590286668</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.96962874478347e-06</v>
+        <v>0.0001260258386292977</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>24.47038590286668</v>
+        <v>8.175504283235542</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001260258386292977</v>
+        <v>1.577055191038373</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.175504283235542</v>
+        <v>0.008423424680727518</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.577055191038373</v>
+        <v>3.018117288651994</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008423424680727518</v>
+        <v>0.9558622949182617</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.018117288651994</v>
+        <v>1.760469622769321</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9558622949182617</v>
+        <v>15</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.760469622769321</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2694727336275942</v>
       </c>
     </row>
@@ -3214,72 +3136,66 @@
         <v>4.959244090134957e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6063992895928583</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.08779774294944032</v>
+        <v>4.347883259314553e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.01700348315713399</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.347883259314553e-06</v>
+        <v>0.3099134300638048</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01700348315713399</v>
+        <v>0.09631593997087301</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3099134300638048</v>
+        <v>1.744865888443237</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.09631593997087301</v>
+        <v>1.738334665105549</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.677153313736991</v>
+        <v>4.51078324566109</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.738334665105549</v>
+        <v>7.053964694863045e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.51078324566109</v>
+        <v>59576408.7785677</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.053964694863045e-15</v>
+        <v>1.92728310784587e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>59576408.7785677</v>
+        <v>25.03697888850205</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.92728310784587e-06</v>
+        <v>0.0001350607034889292</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>25.03697888850205</v>
+        <v>8.878739435726747</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001350607034889292</v>
+        <v>1.606937369295235</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.878739435726747</v>
+        <v>0.0106471072639036</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.606937369295235</v>
+        <v>3.010281047728915</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0106471072639036</v>
+        <v>0.9562511720808334</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.010281047728915</v>
+        <v>1.738495877150049</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9562511720808334</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.738495877150049</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.29627001828412</v>
       </c>
     </row>
@@ -3294,72 +3210,66 @@
         <v>5.007803622371632e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6222844492288735</v>
+        <v>2.061395803691806e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.03857956217415115</v>
+        <v>4.346961177589137e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.061395803691806e-07</v>
+        <v>-0.02015925979872082</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.346961177589137e-06</v>
+        <v>0.3107696231443262</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02015925979872082</v>
+        <v>0.09696439774689851</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3107696231443262</v>
+        <v>1.747727302661111</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.09696439774689851</v>
+        <v>1.663989892393261</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.683533852904487</v>
+        <v>4.744016779133323</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.663989892393261</v>
+        <v>6.377416281629142e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.744016779133323</v>
+        <v>66657275.12586912</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.377416281629142e-15</v>
+        <v>1.723268455407031e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>66657275.12586912</v>
+        <v>28.33608708993201</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.723268455407031e-06</v>
+        <v>0.0001274545100112188</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>28.33608708993201</v>
+        <v>8.409851782940686</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001274545100112188</v>
+        <v>1.61496841621722</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.409851782940686</v>
+        <v>0.009014297586836931</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.61496841621722</v>
+        <v>3.078184800096616</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009014297586836931</v>
+        <v>0.958084025132915</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.078184800096616</v>
+        <v>1.730428358767916</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.958084025132915</v>
+        <v>32</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.730428358767916</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3365611359730399</v>
       </c>
     </row>
@@ -3374,72 +3284,66 @@
         <v>5.102582927700913e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5947438543979275</v>
+        <v>2.16370822951448e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.04285438349833637</v>
+        <v>4.345865323490191e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.16370822951448e-07</v>
+        <v>-0.02328591166058671</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.345865323490191e-06</v>
+        <v>0.3086807485172686</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02328591166058671</v>
+        <v>0.09581186771993368</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3086807485172686</v>
+        <v>1.752493396704156</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.09581186771993368</v>
+        <v>1.631813807485529</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.688331015615494</v>
+        <v>5.491260045338121</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.631813807485529</v>
+        <v>4.754539866459988e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.491260045338121</v>
+        <v>91459582.4500811</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.754539866459988e-15</v>
+        <v>1.264298353331516e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>91459582.4500811</v>
+        <v>39.77103762989488</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.264298353331516e-06</v>
+        <v>0.0001000751497594973</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>39.77103762989488</v>
+        <v>6.465396824678915</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001000751497594973</v>
+        <v>1.57154632259225</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.465396824678915</v>
+        <v>0.004183276971914438</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.57154632259225</v>
+        <v>3.390558247169706</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.004183276971914438</v>
+        <v>0.9578200491276493</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.390558247169706</v>
+        <v>1.757122612297735</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9578200491276493</v>
+        <v>32</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.757122612297735</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3551522463148345</v>
       </c>
     </row>
@@ -3454,72 +3358,66 @@
         <v>5.246297406766475e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5146840101091434</v>
+        <v>2.356063500968356e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1087357873775825</v>
+        <v>4.344591193667305e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.356063500968356e-07</v>
+        <v>-0.02589930999694786</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.344591193667305e-06</v>
+        <v>0.3028722118349337</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02589930999694786</v>
+        <v>0.09239455903982859</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3028722118349337</v>
+        <v>1.817666726483069</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.09239455903982859</v>
+        <v>1.775712945799225</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.768313079742887</v>
+        <v>5.099921549568284</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.775712945799225</v>
+        <v>4.321483508336221e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.099921549568284</v>
+        <v>99742652.1545134</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.321483508336221e-15</v>
+        <v>1.181019355457953e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>99742652.1545134</v>
+        <v>42.99269639216329</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.181019355457953e-06</v>
+        <v>9.143172007305214e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>42.99269639216329</v>
+        <v>5.486414146794154</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.143172007305214e-05</v>
+        <v>2.673307075601013</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>5.486414146794154</v>
+        <v>0.002752162451056827</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.673307075601013</v>
+        <v>3.684156925458366</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.002752162451056827</v>
+        <v>0.9587226810421431</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.684156925458366</v>
+        <v>1.629712377639779</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9587226810421431</v>
+        <v>31</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.629712377639779</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3631001282278392</v>
       </c>
     </row>
@@ -3534,72 +3432,66 @@
         <v>5.430150796022103e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3974863431160664</v>
+        <v>2.488630224981208e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.1381266761466895</v>
+        <v>4.343163776329991e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.488630224981208e-07</v>
+        <v>-0.02737343205480517</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.343163776329991e-06</v>
+        <v>0.2938304846623842</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02737343205480517</v>
+        <v>0.08708334977643133</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2938304846623842</v>
+        <v>1.831065567208874</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.08708334977643133</v>
+        <v>1.759867787333852</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.786842069198907</v>
+        <v>4.848464996421551</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.759867787333852</v>
+        <v>3.04934941387095e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.848464996421551</v>
+        <v>138582675.8584823</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.04934941387095e-15</v>
+        <v>8.536274325580119e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>138582675.8584823</v>
+        <v>58.56323743726406</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.536274325580119e-07</v>
+        <v>9.029406690238303e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>58.56323743726406</v>
+        <v>8.943989675947632</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.029406690238303e-05</v>
+        <v>1.464635340745268</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.943989675947632</v>
+        <v>0.007223069486653176</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.464635340745268</v>
+        <v>3.603837258793858</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007223069486653176</v>
+        <v>0.9606174435590609</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.603837258793858</v>
+        <v>1.62659749630293</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9606174435590609</v>
+        <v>31</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.62659749630293</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4338064375689474</v>
       </c>
     </row>
@@ -3976,7 +3868,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.17471311572095</v>
+        <v>1.144757200072523</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.375058670654604</v>
@@ -4065,7 +3957,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.176031322648846</v>
+        <v>1.1481707452804</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.144164895491553</v>
@@ -4154,7 +4046,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.197126744133181</v>
+        <v>1.169191248880104</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.344201275123563</v>
@@ -4243,7 +4135,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.209683352144327</v>
+        <v>1.181958273395244</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.200861231920987</v>
@@ -4332,7 +4224,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.220008785984303</v>
+        <v>1.1879890134303</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.117807980178065</v>
@@ -4421,7 +4313,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.222995586246308</v>
+        <v>1.194877374111275</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.26919069426165</v>
@@ -4510,7 +4402,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.243721629868751</v>
+        <v>1.21705981042778</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.019536491288709</v>
@@ -4599,7 +4491,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.264134613352279</v>
+        <v>1.235011700658088</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.090639443940569</v>
@@ -4688,7 +4580,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.27397526946494</v>
+        <v>1.251242647034981</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.103277258131284</v>
@@ -4777,7 +4669,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.270212221497107</v>
+        <v>1.244808538800857</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.12373420745788</v>
@@ -4866,7 +4758,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.286014472569804</v>
+        <v>1.26149302072192</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.071510493431366</v>
@@ -4955,7 +4847,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.27807888725747</v>
+        <v>1.255030600218895</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.102381398533515</v>
@@ -5044,7 +4936,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.283230859530607</v>
+        <v>1.261352244423622</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.073749536121585</v>
@@ -5133,7 +5025,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.286464143864383</v>
+        <v>1.26397941627084</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.266048554767284</v>
@@ -5222,7 +5114,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.294563258098502</v>
+        <v>1.267954994110396</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.200352483048095</v>
@@ -5311,7 +5203,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.315774714568359</v>
+        <v>1.289254693182525</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.349236194209516</v>
@@ -5400,7 +5292,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.316558234159158</v>
+        <v>1.295784066747975</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.22605059751282</v>
@@ -5489,7 +5381,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.327110521075491</v>
+        <v>1.310712655995875</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.183891691505213</v>
@@ -5578,7 +5470,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.321229205710323</v>
+        <v>1.300800979249047</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.061320980403705</v>
@@ -5667,7 +5559,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.358369381925865</v>
+        <v>1.341556009613905</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.033003237854793</v>
@@ -5756,7 +5648,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.353699657644117</v>
+        <v>1.338762327174157</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.119373658836629</v>
@@ -5845,7 +5737,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.334430610106504</v>
+        <v>1.317637855384162</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.013016663537383</v>
@@ -5934,7 +5826,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.320780444931105</v>
+        <v>1.305220759941715</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.124071406689152</v>
@@ -6023,7 +5915,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.324785109112942</v>
+        <v>1.305404351556117</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.189727422903647</v>
@@ -6112,7 +6004,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.310587165884149</v>
+        <v>1.288994790438351</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.152611822620883</v>
@@ -6201,7 +6093,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.315339166345543</v>
+        <v>1.289104617557547</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.101216634577286</v>
@@ -6290,7 +6182,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.329691822774796</v>
+        <v>1.30966918193089</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.099146408607077</v>
@@ -6379,7 +6271,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.339887182470232</v>
+        <v>1.319821036495921</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.160099756377779</v>
@@ -6468,7 +6360,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.321286995513997</v>
+        <v>1.303111483312127</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.199637807251757</v>
@@ -6557,7 +6449,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.320959200242147</v>
+        <v>1.302531434016619</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.111866960233532</v>
@@ -6646,7 +6538,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.326273471705183</v>
+        <v>1.301683059994428</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.259955013497782</v>
@@ -6735,7 +6627,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.300914376375051</v>
+        <v>1.282893762531563</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.249042471024444</v>
@@ -6824,7 +6716,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.29189493432347</v>
+        <v>1.272866668170245</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.246089413364091</v>
@@ -6913,7 +6805,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.282526167929392</v>
+        <v>1.262520297756276</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.207759882286471</v>
@@ -7002,7 +6894,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.277110270695807</v>
+        <v>1.253486343906096</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.169858317529924</v>
@@ -7091,7 +6983,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.277066829944153</v>
+        <v>1.253580058881345</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.318520937418614</v>
@@ -7180,7 +7072,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.283186536217179</v>
+        <v>1.259584526834036</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.278118158248988</v>
@@ -7269,7 +7161,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.289201140022977</v>
+        <v>1.26628271766609</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.424891310692265</v>
@@ -7358,7 +7250,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.303173117036112</v>
+        <v>1.280265165965211</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.133040453386841</v>
@@ -7447,7 +7339,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.317513298425407</v>
+        <v>1.293972342103755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.290910627951482</v>
@@ -7536,7 +7428,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.316715263723706</v>
+        <v>1.298915621442719</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.158000884676425</v>
@@ -7625,7 +7517,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.319242855118912</v>
+        <v>1.301565097783356</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.261715297524396</v>
@@ -7714,7 +7606,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.3212866707263</v>
+        <v>1.301537923911876</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.16916620505091</v>
@@ -7803,7 +7695,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.333278540296686</v>
+        <v>1.31565710481468</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.187272323198542</v>
@@ -7892,7 +7784,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.357907686664372</v>
+        <v>1.338201111463899</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.148823882378112</v>
@@ -7981,7 +7873,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.37277378530201</v>
+        <v>1.3582037041736</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.098759811342434</v>
@@ -8070,7 +7962,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.385657451804274</v>
+        <v>1.370292232805181</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.0529683268061</v>
@@ -8159,7 +8051,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.389660794939864</v>
+        <v>1.373590478672488</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.339539398099541</v>
@@ -8248,7 +8140,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.39037997793629</v>
+        <v>1.377089625781479</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.250454913287223</v>
@@ -8337,7 +8229,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.409904250697899</v>
+        <v>1.399223510512616</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.299492094107889</v>
@@ -8426,7 +8318,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.408195556781462</v>
+        <v>1.399513425115728</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.291000460078302</v>
@@ -8515,7 +8407,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.430019121042019</v>
+        <v>1.421104053751663</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.294402867063323</v>
@@ -8604,7 +8496,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.414787251422324</v>
+        <v>1.400855939359178</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.178915949021795</v>
@@ -8693,7 +8585,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.37692452736077</v>
+        <v>1.36871297600552</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.165585063944476</v>
@@ -8782,7 +8674,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.380012539092747</v>
+        <v>1.368155276503733</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.112364833978704</v>
@@ -8871,7 +8763,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.347751246410922</v>
+        <v>1.335393758987768</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.159681260273082</v>
@@ -8960,7 +8852,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.335072429222208</v>
+        <v>1.324233434267779</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.127161966148249</v>
@@ -9049,7 +8941,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.339089182870052</v>
+        <v>1.329283856662129</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.14725651334555</v>
@@ -9138,7 +9030,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.358696560367469</v>
+        <v>1.344795324123502</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.136564253306108</v>
@@ -9227,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.338893498360013</v>
+        <v>1.328143993068867</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.161642678979885</v>
@@ -9316,7 +9208,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.323016310741507</v>
+        <v>1.310377818242782</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.182902094270903</v>
@@ -9602,7 +9494,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432446622778117</v>
+        <v>1.426745676129401</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.829293624823404</v>
@@ -9691,7 +9583,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.4385035625409</v>
+        <v>1.431083171229304</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.837284012126128</v>
@@ -9780,7 +9672,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.450399244864483</v>
+        <v>1.436624699759678</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.960580100822716</v>
@@ -9869,7 +9761,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.464438845194898</v>
+        <v>1.44429682363604</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.579206751260861</v>
@@ -9958,7 +9850,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.463490412953811</v>
+        <v>1.438059633148938</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.62805951181007</v>
@@ -10047,7 +9939,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.471785252024924</v>
+        <v>1.450378997484413</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.738602497968181</v>
@@ -10136,7 +10028,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.487477260859961</v>
+        <v>1.466540171125231</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.599189881806427</v>
@@ -10225,7 +10117,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.478390894882336</v>
+        <v>1.457219771453655</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.554939187865141</v>
@@ -10314,7 +10206,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.480123613194358</v>
+        <v>1.461517489184262</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.614955201072827</v>
@@ -10403,7 +10295,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.47779363449705</v>
+        <v>1.459576818181012</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.449279822011658</v>
@@ -10492,7 +10384,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.494669363077934</v>
+        <v>1.479260522739982</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.23652352075692</v>
@@ -10581,7 +10473,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.489363635923961</v>
+        <v>1.472373299243606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.515321683588961</v>
@@ -10670,7 +10562,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.486461265114572</v>
+        <v>1.466153155922482</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.294766625113199</v>
@@ -10759,7 +10651,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.47983113123925</v>
+        <v>1.457859721862358</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.357255930576486</v>
@@ -10848,7 +10740,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.475841813580318</v>
+        <v>1.456982252495385</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.445778591877415</v>
@@ -10937,7 +10829,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.486254983409114</v>
+        <v>1.468324938210048</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.41759657952946</v>
@@ -11026,7 +10918,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48717829989867</v>
+        <v>1.469466292846557</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.399133548970763</v>
@@ -11115,7 +11007,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49491465954187</v>
+        <v>1.478213120755943</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.388656494188783</v>
@@ -11204,7 +11096,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.49035535647469</v>
+        <v>1.472266864526475</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.419361367662416</v>
@@ -11293,7 +11185,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.509333914150691</v>
+        <v>1.495770169732223</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.324666890082177</v>
@@ -11382,7 +11274,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.506232808853205</v>
+        <v>1.487943850391306</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.336431456310956</v>
@@ -11471,7 +11363,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.496753776751109</v>
+        <v>1.479766962030867</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.04905194102457</v>
@@ -11560,7 +11452,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.493579762254354</v>
+        <v>1.47607058588048</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.408035196229285</v>
@@ -11649,7 +11541,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.479013500403034</v>
+        <v>1.465705165235689</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.427971716507629</v>
@@ -11738,7 +11630,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.464849835684948</v>
+        <v>1.446170319015927</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.448433251661243</v>
@@ -11827,7 +11719,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459402540226776</v>
+        <v>1.438407363117533</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.379730164399541</v>
@@ -11916,7 +11808,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.459382206755475</v>
+        <v>1.440841969249338</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.328801553753535</v>
@@ -12005,7 +11897,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.466957505165387</v>
+        <v>1.446087354405699</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.484408652929887</v>
@@ -12094,7 +11986,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.461199204950905</v>
+        <v>1.444555269441379</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.49672108395545</v>
@@ -12183,7 +12075,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.455097362180963</v>
+        <v>1.435900038863677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.572295014159183</v>
@@ -12272,7 +12164,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.460200554459716</v>
+        <v>1.440235064248446</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.479728308272014</v>
@@ -12361,7 +12253,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.451213971783854</v>
+        <v>1.434709391501024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.602294938439889</v>
@@ -12450,7 +12342,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.452348356431381</v>
+        <v>1.434933667338922</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.805272996928049</v>
@@ -12539,7 +12431,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.445373255273519</v>
+        <v>1.42926726477017</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.66475099522416</v>
@@ -12628,7 +12520,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.443197469654515</v>
+        <v>1.425538459255078</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.608912649734779</v>
@@ -12717,7 +12609,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.45228140451232</v>
+        <v>1.436622446093323</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.726247949082281</v>
@@ -12806,7 +12698,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.458125949353322</v>
+        <v>1.442701852408544</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.662792029613188</v>
@@ -12895,7 +12787,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.445246965567355</v>
+        <v>1.430295912081256</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.460216096067889</v>
@@ -12984,7 +12876,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.470195022392391</v>
+        <v>1.453908390786499</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.304831995782024</v>
@@ -13073,7 +12965,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.485334365017448</v>
+        <v>1.472024823543188</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.80602844427466</v>
@@ -13162,7 +13054,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482719488878679</v>
+        <v>1.469452803924698</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.817284963642743</v>
@@ -13251,7 +13143,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.479125576806634</v>
+        <v>1.468871848065311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.755997764235852</v>
@@ -13340,7 +13232,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.491231471648515</v>
+        <v>1.479476487075316</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.585054152173063</v>
@@ -13429,7 +13321,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.497268582436394</v>
+        <v>1.487113972297882</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.80790437091897</v>
@@ -13518,7 +13410,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517030336419927</v>
+        <v>1.504509346295854</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.701701003249347</v>
@@ -13607,7 +13499,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.519327889899291</v>
+        <v>1.508871736905083</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.723544270743907</v>
@@ -13696,7 +13588,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.528055988695251</v>
+        <v>1.519169769186094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.688145756184933</v>
@@ -13785,7 +13677,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.536612579135093</v>
+        <v>1.530758823303848</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.821972786830583</v>
@@ -13874,7 +13766,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.544954978716055</v>
+        <v>1.535193576932451</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.5827224190465</v>
@@ -13963,7 +13855,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.540450751844653</v>
+        <v>1.534492337409548</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.619408880699695</v>
@@ -14052,7 +13944,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.548075275084667</v>
+        <v>1.535331284318973</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.462199342806613</v>
@@ -14141,7 +14033,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.573123091269133</v>
+        <v>1.560462735695032</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.369464401146277</v>
@@ -14230,7 +14122,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.576394650277482</v>
+        <v>1.566401787492561</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.658509047892387</v>
@@ -14319,7 +14211,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.567280762460525</v>
+        <v>1.559018668157786</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.746914908919314</v>
@@ -14408,7 +14300,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.56939500793066</v>
+        <v>1.556659329125526</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.934738017163173</v>
@@ -14497,7 +14389,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.573074990160072</v>
+        <v>1.562126835909911</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.078428111383819</v>
@@ -14586,7 +14478,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.571483569446196</v>
+        <v>1.565666870463358</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.786771783626656</v>
@@ -14675,7 +14567,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.543152446586073</v>
+        <v>1.537676946469674</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.749135818411885</v>
@@ -14764,7 +14656,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.554260961300175</v>
+        <v>1.548390661716813</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.828532399850779</v>
@@ -14853,7 +14745,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.541654535098684</v>
+        <v>1.537778105754454</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.91326476407822</v>
@@ -14942,7 +14834,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.537524431167032</v>
+        <v>1.536696135860228</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.009295048359462</v>
@@ -15228,7 +15120,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.547117314918199</v>
+        <v>1.504869977169868</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.060488555690609</v>
@@ -15317,7 +15209,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.546717458912815</v>
+        <v>1.503525988156269</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.939722686853336</v>
@@ -15406,7 +15298,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554842336769539</v>
+        <v>1.503681559965961</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.844047617591257</v>
@@ -15495,7 +15387,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552823528365552</v>
+        <v>1.502995108274373</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.309138768640694</v>
@@ -15584,7 +15476,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.557090889247746</v>
+        <v>1.50305822084356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.645731042748442</v>
@@ -15673,7 +15565,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562207581939532</v>
+        <v>1.513345630908261</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.816045316198465</v>
@@ -15762,7 +15654,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.571148874516424</v>
+        <v>1.516878309434527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.534826161622163</v>
@@ -15851,7 +15743,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.54836273060865</v>
+        <v>1.500740579542958</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.36571853073908</v>
@@ -15940,7 +15832,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54019177645607</v>
+        <v>1.496763626648417</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.478862340152943</v>
@@ -16029,7 +15921,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.534331781576987</v>
+        <v>1.470448805828642</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.173875614902163</v>
@@ -16118,7 +16010,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.484232725203319</v>
+        <v>1.451647310449356</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.215025762637236</v>
@@ -16207,7 +16099,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.48839484956166</v>
+        <v>1.460824052263913</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.149368800379624</v>
@@ -16296,7 +16188,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487917075990985</v>
+        <v>1.464877193744619</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.194541142627166</v>
@@ -16385,7 +16277,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482658077892993</v>
+        <v>1.458533743181998</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.233725619346241</v>
@@ -16474,7 +16366,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.478722553551341</v>
+        <v>1.454823994647587</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.248507998674564</v>
@@ -16563,7 +16455,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.471205146941179</v>
+        <v>1.448243779152107</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.18640572453093</v>
@@ -16652,7 +16544,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.476443681835525</v>
+        <v>1.454024450400111</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.17030844474115</v>
@@ -16741,7 +16633,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.476853042893744</v>
+        <v>1.453176083823733</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.199078122779144</v>
@@ -16830,7 +16722,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.477676340010907</v>
+        <v>1.454308291706997</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.148464621960399</v>
@@ -16919,7 +16811,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.484144383622077</v>
+        <v>1.466697813617978</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.197599526372239</v>
@@ -17008,7 +16900,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.485140755333343</v>
+        <v>1.471008112193337</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.162069064002877</v>
@@ -17097,7 +16989,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492517820166932</v>
+        <v>1.480695543808466</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.921280194455193</v>
@@ -17186,7 +17078,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.496560666622875</v>
+        <v>1.480066044343483</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.179645561850835</v>
@@ -17275,7 +17167,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501943654350614</v>
+        <v>1.484956329905345</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.217418639253779</v>
@@ -17364,7 +17256,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.542607108654417</v>
+        <v>1.52149340284694</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.086672488439513</v>
@@ -17453,7 +17345,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559264282119615</v>
+        <v>1.532582491676349</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.238212391091915</v>
@@ -17542,7 +17434,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.549922165541488</v>
+        <v>1.526047051131099</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.03077044906587</v>
@@ -17631,7 +17523,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.559957822248645</v>
+        <v>1.534560570260849</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.392019012735481</v>
@@ -17720,7 +17612,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.555096458404855</v>
+        <v>1.526811994471556</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.877610419837796</v>
@@ -17809,7 +17701,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.55076496064999</v>
+        <v>1.519099651975561</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.280643137307282</v>
@@ -17898,7 +17790,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.552330844532634</v>
+        <v>1.520704088007589</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.152431460109631</v>
@@ -17987,7 +17879,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.543797984977566</v>
+        <v>1.516278567696696</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.314679996432588</v>
@@ -18076,7 +17968,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542921445705326</v>
+        <v>1.517436391743031</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.051258717609573</v>
@@ -18165,7 +18057,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.53614775444164</v>
+        <v>1.51139656419694</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.134270048686251</v>
@@ -18254,7 +18146,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.530894155899329</v>
+        <v>1.501286968929814</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.716894391400195</v>
@@ -18343,7 +18235,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530977459261305</v>
+        <v>1.499440114099608</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.094684873134431</v>
@@ -18432,7 +18324,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.533953165916197</v>
+        <v>1.502823787264277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.103796174379581</v>
@@ -18521,7 +18413,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.537320136379054</v>
+        <v>1.508457550899484</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.343655076387935</v>
@@ -18610,7 +18502,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551593844198255</v>
+        <v>1.522681145589503</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.837555810681038</v>
@@ -18699,7 +18591,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.553029420345176</v>
+        <v>1.51843869421565</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.936499431714483</v>
@@ -18788,7 +18680,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.559933559566367</v>
+        <v>1.523892466547616</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.168595861370209</v>
@@ -18877,7 +18769,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563820641095635</v>
+        <v>1.524664282177367</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.450503506755751</v>
@@ -18966,7 +18858,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553263426180328</v>
+        <v>1.516053680873555</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.320471303197891</v>
@@ -19055,7 +18947,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.5552386573034</v>
+        <v>1.517108581130085</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.97542188844149</v>
@@ -19144,7 +19036,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562147577134786</v>
+        <v>1.525732804717812</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.981050090993866</v>
@@ -19233,7 +19125,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.573316605279579</v>
+        <v>1.531500615944767</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.359153315586048</v>
@@ -19322,7 +19214,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571823108781342</v>
+        <v>1.530151890405204</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.829135476545194</v>
@@ -19411,7 +19303,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575386369226676</v>
+        <v>1.533110873493712</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.143982628505959</v>
@@ -19500,7 +19392,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.562407666262065</v>
+        <v>1.517924662838602</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.304436355591738</v>
@@ -19589,7 +19481,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.555468773734957</v>
+        <v>1.51574013002191</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.497358785533863</v>
@@ -19678,7 +19570,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.554296935018824</v>
+        <v>1.510819220692493</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.507248143347172</v>
@@ -19767,7 +19659,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552343073213717</v>
+        <v>1.508309159216604</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.551480230184416</v>
@@ -19856,7 +19748,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.548064728251768</v>
+        <v>1.508294612519885</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.465951550454247</v>
@@ -19945,7 +19837,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.552206779697084</v>
+        <v>1.512089343632157</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.96728905339355</v>
@@ -20034,7 +19926,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.548030985355973</v>
+        <v>1.512011209155408</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.040745641807407</v>
@@ -20123,7 +20015,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.540174697993425</v>
+        <v>1.509640435272211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.180816452824991</v>
@@ -20212,7 +20104,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.540577914204244</v>
+        <v>1.50523494992259</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.915268007745361</v>
@@ -20301,7 +20193,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.543827114965027</v>
+        <v>1.504211480419885</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.174414310392103</v>
@@ -20390,7 +20282,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.558745835287527</v>
+        <v>1.511858878887035</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.492554938179429</v>
@@ -20479,7 +20371,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.551904072098838</v>
+        <v>1.507706924310744</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.300715513194423</v>
@@ -20568,7 +20460,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.550345305616947</v>
+        <v>1.506286856031371</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.161008132647071</v>
@@ -20854,7 +20746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.628359523972054</v>
+        <v>1.580413393939019</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.668983507939016</v>
@@ -20943,7 +20835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.631854359469466</v>
+        <v>1.587708688054551</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.317200714788151</v>
@@ -21032,7 +20924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.635705234950558</v>
+        <v>1.592147085691005</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.844673221977952</v>
@@ -21121,7 +21013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.63814493005305</v>
+        <v>1.596401106639777</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.501488106454073</v>
@@ -21210,7 +21102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.638990626156778</v>
+        <v>1.597374772476163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.73024656843536</v>
@@ -21299,7 +21191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644591946470538</v>
+        <v>1.602478356793443</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.481019117583354</v>
@@ -21388,7 +21280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64074949721332</v>
+        <v>1.596885584702942</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.597369531345174</v>
@@ -21477,7 +21369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603988692409241</v>
+        <v>1.569849315209839</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.569735046455442</v>
@@ -21566,7 +21458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591792655375073</v>
+        <v>1.555570774473988</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.386476531374753</v>
@@ -21655,7 +21547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600264124902287</v>
+        <v>1.563703613659769</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.47742948211787</v>
@@ -21744,7 +21636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595767391471538</v>
+        <v>1.559718160655094</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.430029003261891</v>
@@ -21833,7 +21725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605335443716494</v>
+        <v>1.566676901655878</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.516081042085815</v>
@@ -21922,7 +21814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61627537878038</v>
+        <v>1.577490847216489</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.547097520571043</v>
@@ -22011,7 +21903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601907667689887</v>
+        <v>1.56668319032274</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.440088590334024</v>
@@ -22100,7 +21992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.595038269281674</v>
+        <v>1.556733704346359</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.489493401025525</v>
@@ -22189,7 +22081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584897593306967</v>
+        <v>1.551784083882714</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.469431913859843</v>
@@ -22278,7 +22170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581692513562577</v>
+        <v>1.540820076649797</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.528993941762172</v>
@@ -22367,7 +22259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.580392004875566</v>
+        <v>1.538077656268302</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.618959454846284</v>
@@ -22456,7 +22348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583886869347557</v>
+        <v>1.542353425639664</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.482664203411844</v>
@@ -22545,7 +22437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.583133498271652</v>
+        <v>1.542294743481551</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.507562678809557</v>
@@ -22634,7 +22526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585234924836746</v>
+        <v>1.541365559424571</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.457152322158331</v>
@@ -22723,7 +22615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.609648162205698</v>
+        <v>1.560517062824341</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.250250466744109</v>
@@ -22812,7 +22704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.621870111849232</v>
+        <v>1.564383769996743</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.650670405949409</v>
@@ -22901,7 +22793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.62296877169268</v>
+        <v>1.571147793608326</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.633852545345043</v>
@@ -22990,7 +22882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.622660132514161</v>
+        <v>1.568477266277347</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.476075966295497</v>
@@ -23079,7 +22971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621905883113299</v>
+        <v>1.567733161177963</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.371440854003023</v>
@@ -23168,7 +23060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61467243999621</v>
+        <v>1.559278466243472</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.114555898370413</v>
@@ -23257,7 +23149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609619813724684</v>
+        <v>1.553282067063868</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.579835664704517</v>
@@ -23346,7 +23238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.617396976027908</v>
+        <v>1.558408405897183</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.198491907771365</v>
@@ -23435,7 +23327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.629324716397637</v>
+        <v>1.569439593106079</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.18345462117414</v>
@@ -23524,7 +23416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.646006346194101</v>
+        <v>1.589061158239178</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.399658200563112</v>
@@ -23613,7 +23505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.650554972938091</v>
+        <v>1.594055875966228</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.190127476201249</v>
@@ -23702,7 +23594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.652299499332675</v>
+        <v>1.601009892753526</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.529810433788783</v>
@@ -23791,7 +23683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650745669099944</v>
+        <v>1.600579650050008</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.103054272573764</v>
@@ -23880,7 +23772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.651548188150392</v>
+        <v>1.60354407795897</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.128508776128513</v>
@@ -23969,7 +23861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.655633957251726</v>
+        <v>1.611209654496524</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.448959979571932</v>
@@ -24058,7 +23950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.663723142514128</v>
+        <v>1.62251350228637</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.661311837358102</v>
@@ -24147,7 +24039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.647232587278973</v>
+        <v>1.606302063383515</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.183503664436355</v>
@@ -24236,7 +24128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.655933065062102</v>
+        <v>1.613222745642455</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.304315383593246</v>
@@ -24325,7 +24217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.661771683212211</v>
+        <v>1.622765668848502</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.277993887805601</v>
@@ -24414,7 +24306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.659839286094335</v>
+        <v>1.620952331872064</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.415909760830904</v>
@@ -24503,7 +24395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.651620916713405</v>
+        <v>1.617990079949788</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.58890655554077</v>
@@ -24592,7 +24484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632925726778732</v>
+        <v>1.600147406114692</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.435055928265994</v>
@@ -24681,7 +24573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.638459674397382</v>
+        <v>1.602139668211618</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.13679198532766</v>
@@ -24770,7 +24662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.642890646094118</v>
+        <v>1.608575805098125</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.392687342496073</v>
@@ -24859,7 +24751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64007859621073</v>
+        <v>1.605396644040672</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.092956350780873</v>
@@ -24948,7 +24840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647365322327047</v>
+        <v>1.612573809153391</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.140226663233457</v>
@@ -25037,7 +24929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647816362221039</v>
+        <v>1.607033114718586</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.607131524068234</v>
@@ -25126,7 +25018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.645650522836211</v>
+        <v>1.60147557827462</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.288364808985982</v>
@@ -25215,7 +25107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643444146720504</v>
+        <v>1.60391527827264</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.384366200076716</v>
@@ -25304,7 +25196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.634448424280503</v>
+        <v>1.591260342624532</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.163405606032957</v>
@@ -25393,7 +25285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.628773906059658</v>
+        <v>1.584524807477607</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.095998783553376</v>
@@ -25482,7 +25374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.634297918427351</v>
+        <v>1.595722898727713</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.562079057091724</v>
@@ -25571,7 +25463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.633411424957342</v>
+        <v>1.593772271386302</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.284494484383033</v>
@@ -25660,7 +25552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.623218057621277</v>
+        <v>1.581927677022545</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.226816294833979</v>
@@ -25749,7 +25641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.625506141760003</v>
+        <v>1.579440807061087</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.606740615439587</v>
@@ -25838,7 +25730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.634286440173128</v>
+        <v>1.58454600043962</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.186512705805058</v>
@@ -25927,7 +25819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.642006956841674</v>
+        <v>1.597888895403017</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.319284485761816</v>
@@ -26016,7 +25908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.644485586982354</v>
+        <v>1.594112129162507</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.678111438570844</v>
@@ -26105,7 +25997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.640232129610322</v>
+        <v>1.59203376324264</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.340341519263898</v>
@@ -26194,7 +26086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.633366554368736</v>
+        <v>1.586539279622751</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.675786353983723</v>
@@ -26480,7 +26372,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.670218357998973</v>
+        <v>1.660770111951107</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.713325180306151</v>
@@ -26569,7 +26461,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.677705410101943</v>
+        <v>1.663566831991004</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.547776191437709</v>
@@ -26658,7 +26550,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.664087214632966</v>
+        <v>1.658219814710873</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.295083356204493</v>
@@ -26747,7 +26639,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.672205876112292</v>
+        <v>1.666723885127431</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.966661566029203</v>
@@ -26836,7 +26728,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.681620227100577</v>
+        <v>1.676547395669525</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.416592839485791</v>
@@ -26925,7 +26817,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680799988724198</v>
+        <v>1.670000608637096</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.137395187315322</v>
@@ -27014,7 +26906,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.692091842739083</v>
+        <v>1.675025465198227</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.382534879912261</v>
@@ -27103,7 +26995,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663339466916086</v>
+        <v>1.64816632581898</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.055996022837189</v>
@@ -27192,7 +27084,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.651117865616066</v>
+        <v>1.63608360265899</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.86028718793378</v>
@@ -27281,7 +27173,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654850363752808</v>
+        <v>1.638255745105097</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.885206751557637</v>
@@ -27370,7 +27262,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.648058835053198</v>
+        <v>1.63765114120025</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.058550415978928</v>
@@ -27459,7 +27351,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.654253327449329</v>
+        <v>1.640289292270927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.97164851067055</v>
@@ -27548,7 +27440,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648857625143262</v>
+        <v>1.633796042874733</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.114175527850881</v>
@@ -27637,7 +27529,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653967835115489</v>
+        <v>1.63956694891742</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.167269957682485</v>
@@ -27726,7 +27618,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.648640685267916</v>
+        <v>1.634669145335568</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134244895983509</v>
@@ -27815,7 +27707,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641630880567974</v>
+        <v>1.626814557573808</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.092809536185186</v>
@@ -27904,7 +27796,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635784189716696</v>
+        <v>1.619431990956466</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.908855994410654</v>
@@ -27993,7 +27885,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.641649336422154</v>
+        <v>1.618232888365539</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.945151946019756</v>
@@ -28082,7 +27974,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.627701342751211</v>
+        <v>1.605790500403283</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.114672701422753</v>
@@ -28171,7 +28063,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617449542312795</v>
+        <v>1.598322911296863</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.809208084322829</v>
@@ -28260,7 +28152,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.617015626612502</v>
+        <v>1.598558598017353</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.204222346613477</v>
@@ -28349,7 +28241,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.614390361098337</v>
+        <v>1.595578126668755</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.709785131816925</v>
@@ -28438,7 +28330,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626554965254659</v>
+        <v>1.606059636834451</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.173811470533685</v>
@@ -28527,7 +28419,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.611492496068991</v>
+        <v>1.592213924078206</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.752410228458932</v>
@@ -28616,7 +28508,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.596099330548155</v>
+        <v>1.57455802399526</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.81147693922327</v>
@@ -28705,7 +28597,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595416317481146</v>
+        <v>1.572357486813822</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.839742793766993</v>
@@ -28794,7 +28686,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594415735684865</v>
+        <v>1.568734015605567</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.945997625849762</v>
@@ -28883,7 +28775,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59686784389892</v>
+        <v>1.569755451155539</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.796523899213428</v>
@@ -28972,7 +28864,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.580422191413669</v>
+        <v>1.553949899869181</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.896695836608705</v>
@@ -29061,7 +28953,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585137957872137</v>
+        <v>1.55560102289348</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.697742010751258</v>
@@ -29150,7 +29042,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583891019898855</v>
+        <v>1.554603185077753</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.854695256981221</v>
@@ -29239,7 +29131,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565248847769291</v>
+        <v>1.547127530076362</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.816960267996424</v>
@@ -29328,7 +29220,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.509379969354766</v>
+        <v>1.505221997993334</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.325069827334665</v>
@@ -29417,7 +29309,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504376772239663</v>
+        <v>1.50272226689705</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.29838161493427</v>
@@ -29506,7 +29398,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.510670617648453</v>
+        <v>1.506776701909131</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.293904744444856</v>
@@ -29595,7 +29487,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516673761811956</v>
+        <v>1.516314025400674</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.324328098582191</v>
@@ -29684,7 +29576,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509166743388273</v>
+        <v>1.510903483228769</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.34105964022321</v>
@@ -29773,7 +29665,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.497604396748236</v>
+        <v>1.499554722555195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.305200507902259</v>
@@ -29862,7 +29754,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.515626410272427</v>
+        <v>1.515552528799079</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.237723537709568</v>
@@ -29951,7 +29843,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.520158490069304</v>
+        <v>1.519943939239232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.334051235315953</v>
@@ -30040,7 +29932,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522388708826393</v>
+        <v>1.523856393384387</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.382132686447446</v>
@@ -30129,7 +30021,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.523314597642074</v>
+        <v>1.523801457815602</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.34318345670841</v>
@@ -30218,7 +30110,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.512223379769232</v>
+        <v>1.51405382927859</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.369732239716693</v>
@@ -30307,7 +30199,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.512271736157782</v>
+        <v>1.512292021874191</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.352416312015829</v>
@@ -30396,7 +30288,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.518720167893958</v>
+        <v>1.519450977736103</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.374769119667219</v>
@@ -30485,7 +30377,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.526614147947597</v>
+        <v>1.525233682729005</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.32979823686021</v>
@@ -30574,7 +30466,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.53761269786175</v>
+        <v>1.529513401880116</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.281846596170585</v>
@@ -30663,7 +30555,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.598133534823497</v>
+        <v>1.58138742597928</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.747301857867191</v>
@@ -30752,7 +30644,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.607576242883779</v>
+        <v>1.583455809762357</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.102929480767994</v>
@@ -30841,7 +30733,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601527508579578</v>
+        <v>1.578727320214068</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.103499273241343</v>
@@ -30930,7 +30822,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.59741789557534</v>
+        <v>1.575759147881724</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.749673562427636</v>
@@ -31019,7 +30911,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.625059048321192</v>
+        <v>1.596922226902525</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.901876474267925</v>
@@ -31108,7 +31000,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.635124925370816</v>
+        <v>1.604374361860881</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.777821152598536</v>
@@ -31197,7 +31089,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.637886543104623</v>
+        <v>1.610388337529266</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.409175047239447</v>
@@ -31286,7 +31178,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.651555152315239</v>
+        <v>1.622574729864031</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.827355795553989</v>
@@ -31375,7 +31267,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.649025268970111</v>
+        <v>1.625409586951294</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.723615629800106</v>
@@ -31464,7 +31356,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.649264010383041</v>
+        <v>1.62391621913262</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.145247813307714</v>
@@ -31553,7 +31445,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.653859396896385</v>
+        <v>1.629738375937398</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.216282081397882</v>
@@ -31642,7 +31534,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.661451877744105</v>
+        <v>1.639137678135662</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.246871579703723</v>
@@ -31731,7 +31623,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.646510690732078</v>
+        <v>1.626012759609904</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.393958667864788</v>
@@ -31820,7 +31712,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.643589784550083</v>
+        <v>1.6282012961863</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.966036534209923</v>
@@ -32106,7 +31998,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.174232297278154</v>
+        <v>1.143272063592705</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.382634946370118</v>
@@ -32195,7 +32087,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.170646294651754</v>
+        <v>1.142362143627059</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.174815458263858</v>
@@ -32284,7 +32176,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.188034975760108</v>
+        <v>1.160825888479891</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.338027462237073</v>
@@ -32373,7 +32265,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.196644114941251</v>
+        <v>1.170089699097886</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.154348571755684</v>
@@ -32462,7 +32354,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.206747931798181</v>
+        <v>1.176127451108459</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.09707837512354</v>
@@ -32551,7 +32443,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.205868212671325</v>
+        <v>1.177271971895639</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.290746678941369</v>
@@ -32640,7 +32532,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.256105830345958</v>
+        <v>1.219272778721683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.57207311201073</v>
@@ -32729,7 +32621,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.180058559442782</v>
+        <v>1.150749570647993</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.610560090603173</v>
@@ -32818,7 +32710,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.182475973769759</v>
+        <v>1.158692683090324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.602996903020586</v>
@@ -32907,7 +32799,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.1831935969697</v>
+        <v>1.157817868414254</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.615715056046432</v>
@@ -32996,7 +32888,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.189611185480746</v>
+        <v>1.165792980714318</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.624954185759018</v>
@@ -33085,7 +32977,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.18727486981107</v>
+        <v>1.167345719272586</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.603577338033757</v>
@@ -33174,7 +33066,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.195077700855647</v>
+        <v>1.176767977401722</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.593778080635401</v>
@@ -33263,7 +33155,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.195840682533685</v>
+        <v>1.176863949630146</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.620033194635597</v>
@@ -33352,7 +33244,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.202275528858008</v>
+        <v>1.18236824917177</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.615252164553611</v>
@@ -33441,7 +33333,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.212923539901763</v>
+        <v>1.193564494100154</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.643478898072447</v>
@@ -33530,7 +33422,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.210766439811547</v>
+        <v>1.196135400968943</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.610857609354982</v>
@@ -33619,7 +33511,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.216168133356481</v>
+        <v>1.200865669715138</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.598742618136177</v>
@@ -33708,7 +33600,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.213197047085111</v>
+        <v>1.196002772006669</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.591338145085912</v>
@@ -33797,7 +33689,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.227521708149863</v>
+        <v>1.211863730850125</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.571045633200736</v>
@@ -33886,7 +33778,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.226249313793807</v>
+        <v>1.214247363306755</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.596812657508282</v>
@@ -33975,7 +33867,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.27595716578111</v>
+        <v>1.26376076181069</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.456932802999751</v>
@@ -34064,7 +33956,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.307372870108569</v>
+        <v>1.296603283433494</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.140353858333387</v>
@@ -34153,7 +34045,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.309973331609314</v>
+        <v>1.295072478632406</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.274127230724323</v>
@@ -34242,7 +34134,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.291818116098699</v>
+        <v>1.277006214291833</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.26924591426559</v>
@@ -34331,7 +34223,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.297743295574386</v>
+        <v>1.275736049326637</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.156022542713416</v>
@@ -34420,7 +34312,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.309098918055721</v>
+        <v>1.288954295516338</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.118128627327348</v>
@@ -34509,7 +34401,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.315312208148039</v>
+        <v>1.295550112580063</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.106060486167261</v>
@@ -34598,7 +34490,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.299541846877971</v>
+        <v>1.280217766251565</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.185649605584101</v>
@@ -34687,7 +34579,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.2954470973925</v>
+        <v>1.275418465099672</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.084440105080034</v>
@@ -34776,7 +34668,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.301816978760787</v>
+        <v>1.273908312687773</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.254373816590481</v>
@@ -34865,7 +34757,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.279145359803512</v>
+        <v>1.258290976413023</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.242470809691441</v>
@@ -34954,7 +34846,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.270992162744175</v>
+        <v>1.252406736548995</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.207607613847423</v>
@@ -35043,7 +34935,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.272102694488273</v>
+        <v>1.252723154628388</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.198223581572618</v>
@@ -35132,7 +35024,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.272997735433377</v>
+        <v>1.253738605613658</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.207534144721131</v>
@@ -35221,7 +35113,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.263023503639715</v>
+        <v>1.243400874390907</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.283867659640468</v>
@@ -35310,7 +35202,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.258842088787741</v>
+        <v>1.239516172037212</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.326386929681458</v>
@@ -35399,7 +35291,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.269901365931892</v>
+        <v>1.249902488284654</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.327169732723547</v>
@@ -35488,7 +35380,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.284501824312907</v>
+        <v>1.262210055653929</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.132232728648345</v>
@@ -35577,7 +35469,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.30278940983005</v>
+        <v>1.278045149344876</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.289980187334471</v>
@@ -35666,7 +35558,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.305640682468863</v>
+        <v>1.289488045613436</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.168822728322121</v>
@@ -35755,7 +35647,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.310098619746034</v>
+        <v>1.293797808166147</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.368187276652205</v>
@@ -35844,7 +35736,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.308085800179886</v>
+        <v>1.288742801999764</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.20588155347109</v>
@@ -35933,7 +35825,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.321844633556812</v>
+        <v>1.303322708589929</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.2474402687813</v>
@@ -36022,7 +35914,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.348791512402297</v>
+        <v>1.329137947668055</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.294782119839794</v>
@@ -36111,7 +36003,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.368164305356774</v>
+        <v>1.352929795733333</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.190420512314751</v>
@@ -36200,7 +36092,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.376606030320502</v>
+        <v>1.358991571384415</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.146284844533585</v>
@@ -36289,7 +36181,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.385475482577542</v>
+        <v>1.361231741921395</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.341402856433779</v>
@@ -36378,7 +36270,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.37379259116268</v>
+        <v>1.356764845442592</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.250601857917631</v>
@@ -36467,7 +36359,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.388109701578724</v>
+        <v>1.369793159902288</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.310931304234728</v>
@@ -36556,7 +36448,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.399102831131763</v>
+        <v>1.381022756927817</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.229022661780253</v>
@@ -36645,7 +36537,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.419892689457727</v>
+        <v>1.401053743250755</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.203802007568371</v>
@@ -36734,7 +36626,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.353039047939348</v>
+        <v>1.334326449002939</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.766329191927179</v>
@@ -36823,7 +36715,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.327479466000824</v>
+        <v>1.316631115479127</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.77076536384264</v>
@@ -36912,7 +36804,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.328818911642027</v>
+        <v>1.311837373135457</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.764634941386889</v>
@@ -37001,7 +36893,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.305361019989422</v>
+        <v>1.287478640396337</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.795945610083149</v>
@@ -37090,7 +36982,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.294482365997057</v>
+        <v>1.278567251750886</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.912046466931459</v>
@@ -37179,7 +37071,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.294441394004127</v>
+        <v>1.280360903134162</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.795005788869169</v>
@@ -37268,7 +37160,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.307082813358951</v>
+        <v>1.289735607883116</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.780559593353108</v>
@@ -37357,7 +37249,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.296185950748179</v>
+        <v>1.279667610585496</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.799443490974637</v>
@@ -37446,7 +37338,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.284108916121972</v>
+        <v>1.266754364235422</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.803452265584363</v>
